--- a/UKG/class_UKG_DF.xlsx
+++ b/UKG/class_UKG_DF.xlsx
@@ -635,10 +635,10 @@
         <v>28</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>49</v>
@@ -679,10 +679,10 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
@@ -899,10 +899,10 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
         <v>49</v>
@@ -1031,10 +1031,10 @@
         <v>28</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N12" t="s">
         <v>49</v>
@@ -1075,10 +1075,10 @@
         <v>28</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
         <v>49</v>
@@ -1295,10 +1295,10 @@
         <v>28</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1316,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
         <v>49</v>
@@ -1427,10 +1427,10 @@
         <v>28</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
         <v>49</v>
@@ -1471,10 +1471,10 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N22" t="s">
         <v>49</v>
@@ -1691,10 +1691,10 @@
         <v>28</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
         <v>49</v>
@@ -1823,10 +1823,10 @@
         <v>28</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N30" t="s">
         <v>49</v>
@@ -1867,10 +1867,10 @@
         <v>28</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N31" t="s">
         <v>49</v>
@@ -2087,10 +2087,10 @@
         <v>28</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -2108,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N36" t="s">
         <v>49</v>
@@ -2219,10 +2219,10 @@
         <v>28</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
@@ -2263,10 +2263,10 @@
         <v>28</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N40" t="s">
         <v>49</v>
@@ -2483,10 +2483,10 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -2504,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N45" t="s">
         <v>49</v>
@@ -2615,10 +2615,10 @@
         <v>28</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2636,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N48" t="s">
         <v>49</v>
@@ -2659,10 +2659,10 @@
         <v>28</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2680,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="M49">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N49" t="s">
         <v>49</v>
@@ -2879,10 +2879,10 @@
         <v>28</v>
       </c>
       <c r="F54">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2900,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="M54">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
         <v>49</v>
@@ -3011,10 +3011,10 @@
         <v>28</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N57" t="s">
         <v>49</v>
@@ -3055,10 +3055,10 @@
         <v>28</v>
       </c>
       <c r="F58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -3076,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N58" t="s">
         <v>49</v>
@@ -3275,10 +3275,10 @@
         <v>28</v>
       </c>
       <c r="F63">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N63" t="s">
         <v>49</v>
@@ -3407,10 +3407,10 @@
         <v>28</v>
       </c>
       <c r="F66">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -3428,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N66" t="s">
         <v>49</v>
@@ -3451,10 +3451,10 @@
         <v>28</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -3472,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="M67">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
         <v>49</v>
@@ -3671,10 +3671,10 @@
         <v>28</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -3692,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N72" t="s">
         <v>49</v>
@@ -3803,10 +3803,10 @@
         <v>28</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
@@ -3847,10 +3847,10 @@
         <v>28</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
@@ -4067,10 +4067,10 @@
         <v>28</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G81">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -4199,10 +4199,10 @@
         <v>28</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>29</v>
@@ -4243,10 +4243,10 @@
         <v>28</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>29</v>
@@ -4463,10 +4463,10 @@
         <v>28</v>
       </c>
       <c r="F90">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -4595,10 +4595,10 @@
         <v>28</v>
       </c>
       <c r="F93">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -4616,7 +4616,7 @@
         <v>11</v>
       </c>
       <c r="M93">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N93" t="s">
         <v>49</v>
@@ -4639,10 +4639,10 @@
         <v>28</v>
       </c>
       <c r="F94">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H94" t="s">
         <v>29</v>
@@ -4660,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="M94">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N94" t="s">
         <v>49</v>
@@ -4859,10 +4859,10 @@
         <v>28</v>
       </c>
       <c r="F99">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>29</v>
@@ -4880,7 +4880,7 @@
         <v>11</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N99" t="s">
         <v>49</v>
@@ -4991,10 +4991,10 @@
         <v>28</v>
       </c>
       <c r="F102">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G102">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>29</v>
@@ -5012,7 +5012,7 @@
         <v>12</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N102" t="s">
         <v>49</v>
@@ -5035,10 +5035,10 @@
         <v>28</v>
       </c>
       <c r="F103">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G103">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>29</v>
@@ -5056,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N103" t="s">
         <v>49</v>
@@ -5255,10 +5255,10 @@
         <v>28</v>
       </c>
       <c r="F108">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G108">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
         <v>29</v>
@@ -5276,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N108" t="s">
         <v>49</v>
@@ -5387,10 +5387,10 @@
         <v>28</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H111" t="s">
         <v>29</v>
@@ -5408,7 +5408,7 @@
         <v>13</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N111" t="s">
         <v>49</v>
@@ -5431,10 +5431,10 @@
         <v>28</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>29</v>
@@ -5452,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="M112">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N112" t="s">
         <v>49</v>
@@ -5651,10 +5651,10 @@
         <v>28</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G117">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H117" t="s">
         <v>29</v>
@@ -5672,7 +5672,7 @@
         <v>13</v>
       </c>
       <c r="M117">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N117" t="s">
         <v>49</v>
@@ -5783,10 +5783,10 @@
         <v>28</v>
       </c>
       <c r="F120">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G120">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H120" t="s">
         <v>29</v>
@@ -5804,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="M120">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N120" t="s">
         <v>49</v>
@@ -5827,10 +5827,10 @@
         <v>28</v>
       </c>
       <c r="F121">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
         <v>29</v>
@@ -5848,7 +5848,7 @@
         <v>14</v>
       </c>
       <c r="M121">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N121" t="s">
         <v>49</v>
@@ -6047,10 +6047,10 @@
         <v>28</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G126">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H126" t="s">
         <v>29</v>
@@ -6068,7 +6068,7 @@
         <v>14</v>
       </c>
       <c r="M126">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N126" t="s">
         <v>49</v>
@@ -6179,10 +6179,10 @@
         <v>28</v>
       </c>
       <c r="F129">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>29</v>
@@ -6223,10 +6223,10 @@
         <v>28</v>
       </c>
       <c r="F130">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G130">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H130" t="s">
         <v>29</v>
@@ -6443,10 +6443,10 @@
         <v>28</v>
       </c>
       <c r="F135">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G135">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H135" t="s">
         <v>29</v>
@@ -6575,10 +6575,10 @@
         <v>28</v>
       </c>
       <c r="F138">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G138">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>29</v>
@@ -6596,7 +6596,7 @@
         <v>16</v>
       </c>
       <c r="M138">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N138" t="s">
         <v>49</v>
@@ -6619,10 +6619,10 @@
         <v>28</v>
       </c>
       <c r="F139">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G139">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>29</v>
@@ -6640,7 +6640,7 @@
         <v>16</v>
       </c>
       <c r="M139">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N139" t="s">
         <v>49</v>
@@ -6839,10 +6839,10 @@
         <v>28</v>
       </c>
       <c r="F144">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H144" t="s">
         <v>29</v>
@@ -6860,7 +6860,7 @@
         <v>16</v>
       </c>
       <c r="M144">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N144" t="s">
         <v>49</v>
@@ -6971,10 +6971,10 @@
         <v>28</v>
       </c>
       <c r="F147">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G147">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>29</v>
@@ -6992,7 +6992,7 @@
         <v>17</v>
       </c>
       <c r="M147">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N147" t="s">
         <v>49</v>
@@ -7015,10 +7015,10 @@
         <v>28</v>
       </c>
       <c r="F148">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G148">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
         <v>29</v>
@@ -7036,7 +7036,7 @@
         <v>17</v>
       </c>
       <c r="M148">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N148" t="s">
         <v>49</v>
@@ -7235,10 +7235,10 @@
         <v>28</v>
       </c>
       <c r="F153">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G153">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>29</v>
@@ -7256,7 +7256,7 @@
         <v>17</v>
       </c>
       <c r="M153">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N153" t="s">
         <v>49</v>
@@ -7367,10 +7367,10 @@
         <v>28</v>
       </c>
       <c r="F156">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G156">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>29</v>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="M156">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N156" t="s">
         <v>49</v>
@@ -7411,10 +7411,10 @@
         <v>28</v>
       </c>
       <c r="F157">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G157">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>29</v>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="M157">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N157" t="s">
         <v>49</v>
@@ -7631,10 +7631,10 @@
         <v>28</v>
       </c>
       <c r="F162">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G162">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H162" t="s">
         <v>29</v>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="M162">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N162" t="s">
         <v>49</v>
@@ -7763,10 +7763,10 @@
         <v>28</v>
       </c>
       <c r="F165">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H165" t="s">
         <v>29</v>
@@ -7784,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="M165">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N165" t="s">
         <v>49</v>
@@ -7807,10 +7807,10 @@
         <v>28</v>
       </c>
       <c r="F166">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G166">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H166" t="s">
         <v>29</v>
@@ -7828,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="M166">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N166" t="s">
         <v>49</v>
@@ -8027,10 +8027,10 @@
         <v>28</v>
       </c>
       <c r="F171">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G171">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>29</v>
@@ -8048,7 +8048,7 @@
         <v>2</v>
       </c>
       <c r="M171">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N171" t="s">
         <v>49</v>
@@ -8159,10 +8159,10 @@
         <v>28</v>
       </c>
       <c r="F174">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G174">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H174" t="s">
         <v>29</v>
@@ -8180,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="M174">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N174" t="s">
         <v>49</v>
@@ -8203,10 +8203,10 @@
         <v>28</v>
       </c>
       <c r="F175">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G175">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>29</v>
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="M175">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N175" t="s">
         <v>49</v>
@@ -8423,10 +8423,10 @@
         <v>28</v>
       </c>
       <c r="F180">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H180" t="s">
         <v>29</v>
@@ -8444,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="M180">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N180" t="s">
         <v>49</v>
@@ -8555,10 +8555,10 @@
         <v>28</v>
       </c>
       <c r="F183">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G183">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>29</v>
@@ -8576,7 +8576,7 @@
         <v>4</v>
       </c>
       <c r="M183">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N183" t="s">
         <v>49</v>
@@ -8599,10 +8599,10 @@
         <v>28</v>
       </c>
       <c r="F184">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G184">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>29</v>
@@ -8620,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="M184">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N184" t="s">
         <v>49</v>
@@ -8819,10 +8819,10 @@
         <v>28</v>
       </c>
       <c r="F189">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>29</v>
@@ -8840,7 +8840,7 @@
         <v>4</v>
       </c>
       <c r="M189">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N189" t="s">
         <v>49</v>
@@ -8951,10 +8951,10 @@
         <v>28</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G192">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>29</v>
@@ -8972,7 +8972,7 @@
         <v>5</v>
       </c>
       <c r="M192">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N192" t="s">
         <v>49</v>
@@ -8995,10 +8995,10 @@
         <v>28</v>
       </c>
       <c r="F193">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G193">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>29</v>
@@ -9215,10 +9215,10 @@
         <v>28</v>
       </c>
       <c r="F198">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G198">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H198" t="s">
         <v>29</v>
@@ -9347,10 +9347,10 @@
         <v>28</v>
       </c>
       <c r="F201">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G201">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H201" t="s">
         <v>29</v>
@@ -9368,7 +9368,7 @@
         <v>6</v>
       </c>
       <c r="M201">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N201" t="s">
         <v>49</v>
@@ -9391,10 +9391,10 @@
         <v>28</v>
       </c>
       <c r="F202">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>29</v>
@@ -9412,7 +9412,7 @@
         <v>6</v>
       </c>
       <c r="M202">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N202" t="s">
         <v>49</v>
@@ -9611,10 +9611,10 @@
         <v>28</v>
       </c>
       <c r="F207">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G207">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H207" t="s">
         <v>29</v>
@@ -9743,10 +9743,10 @@
         <v>28</v>
       </c>
       <c r="F210">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G210">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>29</v>
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="M210">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N210" t="s">
         <v>49</v>
@@ -9787,10 +9787,10 @@
         <v>28</v>
       </c>
       <c r="F211">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G211">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H211" t="s">
         <v>29</v>
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="M211">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N211" t="s">
         <v>49</v>
@@ -10007,10 +10007,10 @@
         <v>28</v>
       </c>
       <c r="F216">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G216">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>29</v>
@@ -10028,7 +10028,7 @@
         <v>7</v>
       </c>
       <c r="M216">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N216" t="s">
         <v>49</v>
@@ -10139,10 +10139,10 @@
         <v>28</v>
       </c>
       <c r="F219">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G219">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H219" t="s">
         <v>29</v>
@@ -10160,7 +10160,7 @@
         <v>8</v>
       </c>
       <c r="M219">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N219" t="s">
         <v>49</v>
@@ -10183,10 +10183,10 @@
         <v>28</v>
       </c>
       <c r="F220">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G220">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>29</v>
@@ -10204,7 +10204,7 @@
         <v>8</v>
       </c>
       <c r="M220">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N220" t="s">
         <v>49</v>
@@ -10403,10 +10403,10 @@
         <v>28</v>
       </c>
       <c r="F225">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G225">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H225" t="s">
         <v>29</v>
@@ -10424,7 +10424,7 @@
         <v>8</v>
       </c>
       <c r="M225">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N225" t="s">
         <v>49</v>
@@ -10535,10 +10535,10 @@
         <v>28</v>
       </c>
       <c r="F228">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G228">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H228" t="s">
         <v>29</v>
@@ -10579,10 +10579,10 @@
         <v>28</v>
       </c>
       <c r="F229">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G229">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H229" t="s">
         <v>29</v>
@@ -10600,7 +10600,7 @@
         <v>9</v>
       </c>
       <c r="M229">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N229" t="s">
         <v>49</v>
@@ -10799,10 +10799,10 @@
         <v>28</v>
       </c>
       <c r="F234">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G234">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
         <v>29</v>
@@ -10931,10 +10931,10 @@
         <v>28</v>
       </c>
       <c r="F237">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G237">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H237" t="s">
         <v>29</v>
@@ -10975,10 +10975,10 @@
         <v>28</v>
       </c>
       <c r="F238">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G238">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>29</v>
@@ -10996,7 +10996,7 @@
         <v>10</v>
       </c>
       <c r="M238">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N238" t="s">
         <v>49</v>
@@ -11195,10 +11195,10 @@
         <v>28</v>
       </c>
       <c r="F243">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G243">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -11216,7 +11216,7 @@
         <v>10</v>
       </c>
       <c r="M243">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N243" t="s">
         <v>49</v>
@@ -11327,10 +11327,10 @@
         <v>28</v>
       </c>
       <c r="F246">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G246">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>29</v>
@@ -11348,7 +11348,7 @@
         <v>11</v>
       </c>
       <c r="M246">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N246" t="s">
         <v>49</v>
@@ -11371,10 +11371,10 @@
         <v>28</v>
       </c>
       <c r="F247">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G247">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H247" t="s">
         <v>29</v>
@@ -11392,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="M247">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N247" t="s">
         <v>49</v>
@@ -11591,10 +11591,10 @@
         <v>28</v>
       </c>
       <c r="F252">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G252">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H252" t="s">
         <v>29</v>
@@ -11612,7 +11612,7 @@
         <v>11</v>
       </c>
       <c r="M252">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N252" t="s">
         <v>49</v>
@@ -11723,10 +11723,10 @@
         <v>28</v>
       </c>
       <c r="F255">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G255">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>29</v>
@@ -11744,7 +11744,7 @@
         <v>12</v>
       </c>
       <c r="M255">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N255" t="s">
         <v>49</v>
@@ -11767,10 +11767,10 @@
         <v>28</v>
       </c>
       <c r="F256">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G256">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>29</v>
@@ -11788,7 +11788,7 @@
         <v>12</v>
       </c>
       <c r="M256">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N256" t="s">
         <v>49</v>
@@ -11987,10 +11987,10 @@
         <v>28</v>
       </c>
       <c r="F261">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G261">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>29</v>
@@ -12008,7 +12008,7 @@
         <v>12</v>
       </c>
       <c r="M261">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N261" t="s">
         <v>49</v>
@@ -12119,10 +12119,10 @@
         <v>28</v>
       </c>
       <c r="F264">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G264">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>29</v>
@@ -12140,7 +12140,7 @@
         <v>13</v>
       </c>
       <c r="M264">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N264" t="s">
         <v>49</v>
@@ -12163,10 +12163,10 @@
         <v>28</v>
       </c>
       <c r="F265">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G265">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H265" t="s">
         <v>29</v>
@@ -12184,7 +12184,7 @@
         <v>13</v>
       </c>
       <c r="M265">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N265" t="s">
         <v>49</v>
@@ -12383,10 +12383,10 @@
         <v>28</v>
       </c>
       <c r="F270">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G270">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H270" t="s">
         <v>29</v>
@@ -12404,7 +12404,7 @@
         <v>13</v>
       </c>
       <c r="M270">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N270" t="s">
         <v>49</v>
@@ -12515,10 +12515,10 @@
         <v>28</v>
       </c>
       <c r="F273">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G273">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>29</v>
@@ -12536,7 +12536,7 @@
         <v>14</v>
       </c>
       <c r="M273">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N273" t="s">
         <v>49</v>
@@ -12559,10 +12559,10 @@
         <v>28</v>
       </c>
       <c r="F274">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G274">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H274" t="s">
         <v>29</v>
@@ -12580,7 +12580,7 @@
         <v>14</v>
       </c>
       <c r="M274">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="N274" t="s">
         <v>49</v>
@@ -12779,10 +12779,10 @@
         <v>28</v>
       </c>
       <c r="F279">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G279">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>29</v>
@@ -12800,7 +12800,7 @@
         <v>14</v>
       </c>
       <c r="M279">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N279" t="s">
         <v>49</v>
@@ -12911,10 +12911,10 @@
         <v>28</v>
       </c>
       <c r="F282">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G282">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H282" t="s">
         <v>29</v>
@@ -12955,10 +12955,10 @@
         <v>28</v>
       </c>
       <c r="F283">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G283">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H283" t="s">
         <v>29</v>
@@ -13175,10 +13175,10 @@
         <v>28</v>
       </c>
       <c r="F288">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G288">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>29</v>
@@ -13307,10 +13307,10 @@
         <v>28</v>
       </c>
       <c r="F291">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G291">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H291" t="s">
         <v>29</v>
@@ -13328,7 +13328,7 @@
         <v>16</v>
       </c>
       <c r="M291">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N291" t="s">
         <v>49</v>
@@ -13351,10 +13351,10 @@
         <v>28</v>
       </c>
       <c r="F292">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G292">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>29</v>
@@ -13372,7 +13372,7 @@
         <v>16</v>
       </c>
       <c r="M292">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="N292" t="s">
         <v>49</v>
@@ -13571,10 +13571,10 @@
         <v>28</v>
       </c>
       <c r="F297">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G297">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>29</v>
@@ -13592,7 +13592,7 @@
         <v>16</v>
       </c>
       <c r="M297">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N297" t="s">
         <v>49</v>
@@ -13703,10 +13703,10 @@
         <v>28</v>
       </c>
       <c r="F300">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G300">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -13724,7 +13724,7 @@
         <v>17</v>
       </c>
       <c r="M300">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N300" t="s">
         <v>49</v>
@@ -13747,10 +13747,10 @@
         <v>28</v>
       </c>
       <c r="F301">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G301">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>29</v>
@@ -13768,7 +13768,7 @@
         <v>17</v>
       </c>
       <c r="M301">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="N301" t="s">
         <v>49</v>
@@ -13967,10 +13967,10 @@
         <v>28</v>
       </c>
       <c r="F306">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G306">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>29</v>
@@ -13988,7 +13988,7 @@
         <v>17</v>
       </c>
       <c r="M306">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N306" t="s">
         <v>49</v>
@@ -14099,10 +14099,10 @@
         <v>28</v>
       </c>
       <c r="F309">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G309">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H309" t="s">
         <v>29</v>
@@ -14120,7 +14120,7 @@
         <v>1</v>
       </c>
       <c r="M309">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N309" t="s">
         <v>49</v>
@@ -14143,10 +14143,10 @@
         <v>28</v>
       </c>
       <c r="F310">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G310">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H310" t="s">
         <v>29</v>
@@ -14164,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="M310">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N310" t="s">
         <v>49</v>
@@ -14363,10 +14363,10 @@
         <v>28</v>
       </c>
       <c r="F315">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G315">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H315" t="s">
         <v>29</v>
@@ -14384,7 +14384,7 @@
         <v>1</v>
       </c>
       <c r="M315">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N315" t="s">
         <v>49</v>
@@ -14495,10 +14495,10 @@
         <v>28</v>
       </c>
       <c r="F318">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G318">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H318" t="s">
         <v>29</v>
@@ -14516,7 +14516,7 @@
         <v>2</v>
       </c>
       <c r="M318">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="N318" t="s">
         <v>49</v>
@@ -14539,10 +14539,10 @@
         <v>28</v>
       </c>
       <c r="F319">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G319">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H319" t="s">
         <v>29</v>
@@ -14560,7 +14560,7 @@
         <v>2</v>
       </c>
       <c r="M319">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N319" t="s">
         <v>49</v>
@@ -14759,10 +14759,10 @@
         <v>28</v>
       </c>
       <c r="F324">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G324">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H324" t="s">
         <v>29</v>
@@ -14780,7 +14780,7 @@
         <v>2</v>
       </c>
       <c r="M324">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N324" t="s">
         <v>49</v>
@@ -14891,10 +14891,10 @@
         <v>28</v>
       </c>
       <c r="F327">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G327">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H327" t="s">
         <v>29</v>
@@ -14912,7 +14912,7 @@
         <v>3</v>
       </c>
       <c r="M327">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N327" t="s">
         <v>49</v>
@@ -14935,10 +14935,10 @@
         <v>28</v>
       </c>
       <c r="F328">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G328">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H328" t="s">
         <v>29</v>
@@ -14956,7 +14956,7 @@
         <v>3</v>
       </c>
       <c r="M328">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N328" t="s">
         <v>49</v>
@@ -15155,10 +15155,10 @@
         <v>28</v>
       </c>
       <c r="F333">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G333">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H333" t="s">
         <v>29</v>
@@ -15176,7 +15176,7 @@
         <v>3</v>
       </c>
       <c r="M333">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N333" t="s">
         <v>49</v>
@@ -15287,10 +15287,10 @@
         <v>28</v>
       </c>
       <c r="F336">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G336">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H336" t="s">
         <v>29</v>
@@ -15308,7 +15308,7 @@
         <v>4</v>
       </c>
       <c r="M336">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="N336" t="s">
         <v>49</v>
@@ -15331,10 +15331,10 @@
         <v>28</v>
       </c>
       <c r="F337">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G337">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H337" t="s">
         <v>29</v>
@@ -15352,7 +15352,7 @@
         <v>4</v>
       </c>
       <c r="M337">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="N337" t="s">
         <v>49</v>
@@ -15551,10 +15551,10 @@
         <v>28</v>
       </c>
       <c r="F342">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G342">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H342" t="s">
         <v>29</v>
@@ -15572,7 +15572,7 @@
         <v>4</v>
       </c>
       <c r="M342">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N342" t="s">
         <v>49</v>
@@ -15683,10 +15683,10 @@
         <v>28</v>
       </c>
       <c r="F345">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G345">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H345" t="s">
         <v>29</v>
@@ -15704,7 +15704,7 @@
         <v>5</v>
       </c>
       <c r="M345">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="N345" t="s">
         <v>49</v>
@@ -15727,10 +15727,10 @@
         <v>28</v>
       </c>
       <c r="F346">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G346">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H346" t="s">
         <v>29</v>
@@ -15748,7 +15748,7 @@
         <v>5</v>
       </c>
       <c r="M346">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="N346" t="s">
         <v>49</v>
@@ -15947,10 +15947,10 @@
         <v>28</v>
       </c>
       <c r="F351">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G351">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H351" t="s">
         <v>29</v>
@@ -15968,7 +15968,7 @@
         <v>5</v>
       </c>
       <c r="M351">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N351" t="s">
         <v>49</v>
@@ -16079,10 +16079,10 @@
         <v>28</v>
       </c>
       <c r="F354">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G354">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H354" t="s">
         <v>29</v>
@@ -16100,7 +16100,7 @@
         <v>6</v>
       </c>
       <c r="M354">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="N354" t="s">
         <v>49</v>
@@ -16123,10 +16123,10 @@
         <v>28</v>
       </c>
       <c r="F355">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G355">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H355" t="s">
         <v>29</v>
@@ -16144,7 +16144,7 @@
         <v>6</v>
       </c>
       <c r="M355">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N355" t="s">
         <v>49</v>
@@ -16343,10 +16343,10 @@
         <v>28</v>
       </c>
       <c r="F360">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G360">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H360" t="s">
         <v>29</v>
@@ -16364,7 +16364,7 @@
         <v>6</v>
       </c>
       <c r="M360">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="N360" t="s">
         <v>49</v>
@@ -16475,10 +16475,10 @@
         <v>28</v>
       </c>
       <c r="F363">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G363">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H363" t="s">
         <v>29</v>
@@ -16496,7 +16496,7 @@
         <v>7</v>
       </c>
       <c r="M363">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="N363" t="s">
         <v>49</v>
@@ -16519,10 +16519,10 @@
         <v>28</v>
       </c>
       <c r="F364">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G364">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H364" t="s">
         <v>29</v>
@@ -16540,7 +16540,7 @@
         <v>7</v>
       </c>
       <c r="M364">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="N364" t="s">
         <v>49</v>
@@ -16739,10 +16739,10 @@
         <v>28</v>
       </c>
       <c r="F369">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G369">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H369" t="s">
         <v>29</v>
@@ -16760,7 +16760,7 @@
         <v>7</v>
       </c>
       <c r="M369">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N369" t="s">
         <v>49</v>
@@ -16871,10 +16871,10 @@
         <v>28</v>
       </c>
       <c r="F372">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G372">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H372" t="s">
         <v>29</v>
@@ -16892,7 +16892,7 @@
         <v>8</v>
       </c>
       <c r="M372">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="N372" t="s">
         <v>49</v>
@@ -16915,10 +16915,10 @@
         <v>28</v>
       </c>
       <c r="F373">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G373">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H373" t="s">
         <v>29</v>
@@ -16936,7 +16936,7 @@
         <v>8</v>
       </c>
       <c r="M373">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N373" t="s">
         <v>49</v>
@@ -17135,10 +17135,10 @@
         <v>28</v>
       </c>
       <c r="F378">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G378">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H378" t="s">
         <v>29</v>
@@ -17156,7 +17156,7 @@
         <v>8</v>
       </c>
       <c r="M378">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N378" t="s">
         <v>49</v>
@@ -17267,10 +17267,10 @@
         <v>28</v>
       </c>
       <c r="F381">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G381">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H381" t="s">
         <v>29</v>
@@ -17288,7 +17288,7 @@
         <v>9</v>
       </c>
       <c r="M381">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N381" t="s">
         <v>49</v>
@@ -17311,10 +17311,10 @@
         <v>28</v>
       </c>
       <c r="F382">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G382">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H382" t="s">
         <v>29</v>
@@ -17332,7 +17332,7 @@
         <v>9</v>
       </c>
       <c r="M382">
-        <v>13.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="N382" t="s">
         <v>50</v>
@@ -17531,10 +17531,10 @@
         <v>28</v>
       </c>
       <c r="F387">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G387">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H387" t="s">
         <v>29</v>
@@ -17552,7 +17552,7 @@
         <v>9</v>
       </c>
       <c r="M387">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="N387" t="s">
         <v>49</v>
@@ -17663,10 +17663,10 @@
         <v>28</v>
       </c>
       <c r="F390">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G390">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H390" t="s">
         <v>29</v>
@@ -17684,7 +17684,7 @@
         <v>10</v>
       </c>
       <c r="M390">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="N390" t="s">
         <v>49</v>
@@ -17707,10 +17707,10 @@
         <v>28</v>
       </c>
       <c r="F391">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G391">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H391" t="s">
         <v>29</v>
@@ -17728,7 +17728,7 @@
         <v>10</v>
       </c>
       <c r="M391">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="N391" t="s">
         <v>49</v>
@@ -17927,10 +17927,10 @@
         <v>28</v>
       </c>
       <c r="F396">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G396">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H396" t="s">
         <v>29</v>
@@ -17948,7 +17948,7 @@
         <v>10</v>
       </c>
       <c r="M396">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="N396" t="s">
         <v>49</v>
@@ -18059,10 +18059,10 @@
         <v>28</v>
       </c>
       <c r="F399">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G399">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H399" t="s">
         <v>29</v>
@@ -18080,7 +18080,7 @@
         <v>11</v>
       </c>
       <c r="M399">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N399" t="s">
         <v>49</v>
@@ -18103,10 +18103,10 @@
         <v>28</v>
       </c>
       <c r="F400">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G400">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H400" t="s">
         <v>29</v>
@@ -18124,7 +18124,7 @@
         <v>11</v>
       </c>
       <c r="M400">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N400" t="s">
         <v>49</v>
@@ -18323,10 +18323,10 @@
         <v>28</v>
       </c>
       <c r="F405">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G405">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H405" t="s">
         <v>29</v>
@@ -18344,7 +18344,7 @@
         <v>11</v>
       </c>
       <c r="M405">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N405" t="s">
         <v>49</v>
@@ -18455,10 +18455,10 @@
         <v>28</v>
       </c>
       <c r="F408">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G408">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H408" t="s">
         <v>29</v>
@@ -18476,7 +18476,7 @@
         <v>12</v>
       </c>
       <c r="M408">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N408" t="s">
         <v>49</v>
@@ -18499,10 +18499,10 @@
         <v>28</v>
       </c>
       <c r="F409">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G409">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H409" t="s">
         <v>29</v>
@@ -18520,7 +18520,7 @@
         <v>12</v>
       </c>
       <c r="M409">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N409" t="s">
         <v>49</v>
@@ -18719,10 +18719,10 @@
         <v>28</v>
       </c>
       <c r="F414">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G414">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H414" t="s">
         <v>29</v>
@@ -18740,7 +18740,7 @@
         <v>12</v>
       </c>
       <c r="M414">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N414" t="s">
         <v>49</v>
@@ -18851,10 +18851,10 @@
         <v>28</v>
       </c>
       <c r="F417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G417">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H417" t="s">
         <v>29</v>
@@ -18872,7 +18872,7 @@
         <v>13</v>
       </c>
       <c r="M417">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="N417" t="s">
         <v>49</v>
@@ -18895,10 +18895,10 @@
         <v>28</v>
       </c>
       <c r="F418">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G418">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H418" t="s">
         <v>29</v>
@@ -18916,7 +18916,7 @@
         <v>13</v>
       </c>
       <c r="M418">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N418" t="s">
         <v>49</v>
@@ -19115,10 +19115,10 @@
         <v>28</v>
       </c>
       <c r="F423">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G423">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H423" t="s">
         <v>29</v>
@@ -19136,7 +19136,7 @@
         <v>13</v>
       </c>
       <c r="M423">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N423" t="s">
         <v>49</v>
@@ -19247,10 +19247,10 @@
         <v>28</v>
       </c>
       <c r="F426">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G426">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H426" t="s">
         <v>29</v>
@@ -19268,7 +19268,7 @@
         <v>14</v>
       </c>
       <c r="M426">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N426" t="s">
         <v>49</v>
@@ -19291,10 +19291,10 @@
         <v>28</v>
       </c>
       <c r="F427">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G427">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H427" t="s">
         <v>29</v>
@@ -19312,7 +19312,7 @@
         <v>14</v>
       </c>
       <c r="M427">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N427" t="s">
         <v>49</v>
@@ -19511,10 +19511,10 @@
         <v>28</v>
       </c>
       <c r="F432">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G432">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H432" t="s">
         <v>29</v>
@@ -19532,7 +19532,7 @@
         <v>14</v>
       </c>
       <c r="M432">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="N432" t="s">
         <v>49</v>
@@ -19643,10 +19643,10 @@
         <v>28</v>
       </c>
       <c r="F435">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G435">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H435" t="s">
         <v>29</v>
@@ -19687,10 +19687,10 @@
         <v>28</v>
       </c>
       <c r="F436">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G436">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H436" t="s">
         <v>29</v>
@@ -19907,10 +19907,10 @@
         <v>28</v>
       </c>
       <c r="F441">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G441">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H441" t="s">
         <v>29</v>
@@ -20039,10 +20039,10 @@
         <v>28</v>
       </c>
       <c r="F444">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G444">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H444" t="s">
         <v>29</v>
@@ -20060,7 +20060,7 @@
         <v>16</v>
       </c>
       <c r="M444">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="N444" t="s">
         <v>49</v>
@@ -20083,10 +20083,10 @@
         <v>28</v>
       </c>
       <c r="F445">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G445">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H445" t="s">
         <v>29</v>
@@ -20104,7 +20104,7 @@
         <v>16</v>
       </c>
       <c r="M445">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="N445" t="s">
         <v>49</v>
@@ -20303,10 +20303,10 @@
         <v>28</v>
       </c>
       <c r="F450">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G450">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H450" t="s">
         <v>29</v>
@@ -20324,7 +20324,7 @@
         <v>16</v>
       </c>
       <c r="M450">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="N450" t="s">
         <v>49</v>
@@ -20435,10 +20435,10 @@
         <v>28</v>
       </c>
       <c r="F453">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G453">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H453" t="s">
         <v>29</v>
@@ -20456,7 +20456,7 @@
         <v>17</v>
       </c>
       <c r="M453">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="N453" t="s">
         <v>49</v>
@@ -20479,10 +20479,10 @@
         <v>28</v>
       </c>
       <c r="F454">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G454">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H454" t="s">
         <v>29</v>
@@ -20500,7 +20500,7 @@
         <v>17</v>
       </c>
       <c r="M454">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N454" t="s">
         <v>49</v>
@@ -20699,10 +20699,10 @@
         <v>28</v>
       </c>
       <c r="F459">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G459">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H459" t="s">
         <v>29</v>
@@ -20720,7 +20720,7 @@
         <v>17</v>
       </c>
       <c r="M459">
-        <v>31.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="N459" t="s">
         <v>49</v>
